--- a/biology/Botanique/Cotonéaster_de_Rabou/Cotonéaster_de_Rabou.xlsx
+++ b/biology/Botanique/Cotonéaster_de_Rabou/Cotonéaster_de_Rabou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coton%C3%A9aster_de_Rabou</t>
+          <t>Cotonéaster_de_Rabou</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cotonéaster de Rabou
 Cotoneaster raboutensis, de nom commun Cotonéaster de Rabou, est une espèce de plantes à fleurs de la famille des Rosaceae et du genre Cotoneaster. C' est un arbuste endémique du sud-est de la France.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coton%C3%A9aster_de_Rabou</t>
+          <t>Cotonéaster_de_Rabou</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,12 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Le Cotonéaster de Rabou est un arbuste dressé, de 50 cm à 2 m, à feuilles nombreuses de plusieurs tailles et se chevauchant, la face supérieure généralement glabre. A l'automne, les feuilles changent de couleur de façon très différente sur un même individu ou même une même feuille, donnant des individus aux couleurs très chamarrées[4]. 
-Appareil reproducteur
-Le diamètre de la corolle est de 6–7 mm. Les fruits sont d'un rouge terne et sont glabres (pruineux), sur un pédicelle allongé, sphériques. La floraison a lieu de mai à juin[4].
-Confusions possibles
-Cotoneaster raboutensis, généralement glabre à la face supérieure et dont les fruits sont glabres, peut être confondu avec Cotoneaster intermedius ainsi qu'avec Cotoneaster tomentosus, qui possède des feuilles moins triangulaires à limbe très légèrement cordiforme à la base et des fruits plus velus[4].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Cotonéaster de Rabou est un arbuste dressé, de 50 cm à 2 m, à feuilles nombreuses de plusieurs tailles et se chevauchant, la face supérieure généralement glabre. A l'automne, les feuilles changent de couleur de façon très différente sur un même individu ou même une même feuille, donnant des individus aux couleurs très chamarrées. 
 </t>
         </is>
       </c>
@@ -530,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Coton%C3%A9aster_de_Rabou</t>
+          <t>Cotonéaster_de_Rabou</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat et répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le Cotonéaster de Rabou est endémique du sud-est de la France[5],[2],[3], connu uniquement dans un secteur restreint à cheval sur les Hautes-Alpes et les Alpes de Haute-Provence, d'une altitude de 1 000 à 1 600 mètres[4].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diamètre de la corolle est de 6–7 mm. Les fruits sont d'un rouge terne et sont glabres (pruineux), sur un pédicelle allongé, sphériques. La floraison a lieu de mai à juin.
 </t>
         </is>
       </c>
@@ -561,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Coton%C3%A9aster_de_Rabou</t>
+          <t>Cotonéaster_de_Rabou</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,12 +595,84 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Confusions possibles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cotoneaster raboutensis, généralement glabre à la face supérieure et dont les fruits sont glabres, peut être confondu avec Cotoneaster intermedius ainsi qu'avec Cotoneaster tomentosus, qui possède des feuilles moins triangulaires à limbe très légèrement cordiforme à la base et des fruits plus velus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cotonéaster_de_Rabou</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coton%C3%A9aster_de_Rabou</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Cotonéaster de Rabou est endémique du sud-est de la France connu uniquement dans un secteur restreint à cheval sur les Hautes-Alpes et les Alpes de Haute-Provence, d'une altitude de 1 000 à 1 600 mètres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cotonéaster_de_Rabou</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coton%C3%A9aster_de_Rabou</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Menaces et conservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est classée « espèce vulnérable » (VU) sur la Liste rouge régionale de la flore vasculaire de Provence-Alpes-Côte d’Azur (2015)[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est classée « espèce vulnérable » (VU) sur la Liste rouge régionale de la flore vasculaire de Provence-Alpes-Côte d’Azur (2015).
 </t>
         </is>
       </c>
